--- a/Time_value_of_Money/Future_Values.xlsx
+++ b/Time_value_of_Money/Future_Values.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devere/Principles_of_Finance_with_Excel/Time_value_of_Money/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devereweaver/Principles-of-Finance-with-Excel/Time_value_of_Money/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12353C80-EC2D-8B4F-A72B-A201D851829E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E3B71D-03DA-8146-8B3F-C36138C427C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16900" yWindow="500" windowWidth="21500" windowHeight="21100" xr2:uid="{BF4BA558-21DF-6346-BB30-76F6DA8C33C4}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="3" xr2:uid="{BF4BA558-21DF-6346-BB30-76F6DA8C33C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Future Values 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Future Value of Single Deposit" sheetId="2" r:id="rId2"/>
+    <sheet name="Future Value - Different Rates" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Calculating Future Values with Excel</t>
   </si>
@@ -52,12 +55,72 @@
   <si>
     <t>Account balance after n years</t>
   </si>
+  <si>
+    <t>The Future Value of Single Deposit</t>
+  </si>
+  <si>
+    <t>Initial deposit</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Future Value</t>
+  </si>
+  <si>
+    <t>FV @ 0%</t>
+  </si>
+  <si>
+    <t>FV @ 6%</t>
+  </si>
+  <si>
+    <t>FV @ 12%</t>
+  </si>
+  <si>
+    <t>The Future Value of Single Deposit at Different Interest Rates</t>
+  </si>
+  <si>
+    <t>FUTURE VALUE WITH ANNUAL DEPOSITS
+at beginning of year</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Account
+balance,
+beg. year</t>
+  </si>
+  <si>
+    <t>Deposit at
+beginning
+of year</t>
+  </si>
+  <si>
+    <t>Interest
+earned
+during year</t>
+  </si>
+  <si>
+    <t>Total in
+account at
+end of year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Future value using Excel's FV function: </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,13 +135,56 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,19 +196,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{991CDB60-0B6C-6C4E-9F1B-AD43F0404CB8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -115,6 +259,2362 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Future Value of $100 at 6% Interst</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Future Value of Single Deposit'!$A$6:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Future Value of Single Deposit'!$B$6:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119.10160000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126.24769600000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>133.82255776000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141.85191122560005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150.36302589913609</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>159.38480745308422</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>168.94789590026929</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>179.08476965428545</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>189.82985583354261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>201.2196471835552</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>213.2928260145685</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>226.09039557544261</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>239.65581930996925</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>254.03516846856732</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>269.2772785766814</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>285.43391529128229</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>302.55995020875923</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>320.71354722128478</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3495-B643-9443-92A3B9F62C9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="867953216"/>
+        <c:axId val="867954928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="867953216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="867954928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="867954928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Future</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Values</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="867953216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Future</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Value of Single Deposit</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>At Different Interest Rates</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Future Value - Different Rates'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FV @ 0%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Future Value - Different Rates'!$B$6:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8AC-234F-8578-7772D952C903}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Future Value - Different Rates'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FV @ 6%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Future Value - Different Rates'!$C$6:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119.10160000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126.24769600000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>133.82255776000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141.85191122560005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150.36302589913609</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>159.38480745308422</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>168.94789590026929</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>179.08476965428545</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>189.82985583354261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>201.2196471835552</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>213.2928260145685</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>226.09039557544261</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>239.65581930996925</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>254.03516846856732</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>269.2772785766814</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>285.43391529128229</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>302.55995020875923</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>320.71354722128478</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B8AC-234F-8578-7772D952C903}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Future Value - Different Rates'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FV @ 12%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Future Value - Different Rates'!$D$6:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125.44000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140.49280000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>157.35193600000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176.23416832000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>197.38226851840008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>221.0681407406081</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>247.59631762948109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>277.3078757450188</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>310.58482083442112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>347.85499933455174</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>389.59759925469785</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>436.34931116526172</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>488.71122850509312</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>547.35657592570431</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>613.03936503678892</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>686.60408884120363</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>768.99657950214817</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>861.27616904240597</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>964.62930932749464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B8AC-234F-8578-7772D952C903}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="66264784"/>
+        <c:axId val="66387488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="66264784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66387488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66387488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66264784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6AAB47-0F9A-DD36-E6BA-6C1314C60E44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>21430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>81755</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C93AEA6-4C57-8711-FB9D-DA55B7621251}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608A4162-0467-B040-9D2E-6673306B5435}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,11 +2947,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -492,4 +2992,992 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BA8C67-DCF3-2348-B4DB-340163230FB6}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F35" sqref="F24:F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <f>$B$2*(1+$B$3)^A6</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>A6+1</f>
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B26" si="0">$B$2*(1+$B$3)^A7</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" ref="A8:A26" si="1">A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>112.36000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>119.10160000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>126.24769600000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>133.82255776000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>141.85191122560005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>150.36302589913609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>159.38480745308422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>168.94789590026929</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>A15+1</f>
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>179.08476965428545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>189.82985583354261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>201.2196471835552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>213.2928260145685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>226.09039557544261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>239.65581930996925</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>254.03516846856732</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>A22+1</f>
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>269.2772785766814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>285.43391529128229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>302.55995020875923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>320.71354722128478</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C8202A-3697-744C-8773-DCADEBB6C4B9}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <f>$B$2*(1+$B$3)^A6</f>
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <f>$B$2*(1+$C$3)^A6</f>
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <f>$B$2*(1+$D$3)^A6</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>A6+1</f>
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B26" si="0">$B$2*(1+$B$3)^A7</f>
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C26" si="1">$B$2*(1+$C$3)^A7</f>
+        <v>106</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D26" si="2">$B$2*(1+$D$3)^A7</f>
+        <v>112.00000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" ref="A8:A26" si="3">A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>112.36000000000001</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>125.44000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>119.10160000000003</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>140.49280000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>126.24769600000003</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>157.35193600000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>133.82255776000005</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>176.23416832000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>141.85191122560005</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>197.38226851840008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>150.36302589913609</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>221.0681407406081</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>159.38480745308422</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>247.59631762948109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>168.94789590026929</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>277.3078757450188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>A15+1</f>
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>179.08476965428545</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>310.58482083442112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>189.82985583354261</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>347.85499933455174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>201.2196471835552</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>389.59759925469785</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>213.2928260145685</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>436.34931116526172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>226.09039557544261</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>488.71122850509312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>239.65581930996925</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>547.35657592570431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>254.03516846856732</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>613.03936503678892</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>A22+1</f>
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>269.2772785766814</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>686.60408884120363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>285.43391529128229</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>768.99657950214817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>302.55995020875923</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>861.27616904240597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>320.71354722128478</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>964.62930932749464</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0A6444-0299-7245-B1A3-D1C29651F88A}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" style="10" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" ht="42" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>100</v>
+      </c>
+      <c r="D5" s="15">
+        <f t="shared" ref="D5:D14" si="0">(C5+B5)*$B$2</f>
+        <v>6</v>
+      </c>
+      <c r="E5" s="15">
+        <f>B5+C5+D5</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15">
+        <f>E5</f>
+        <v>106</v>
+      </c>
+      <c r="C6" s="15">
+        <v>100</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" si="0"/>
+        <v>12.36</v>
+      </c>
+      <c r="E6" s="15">
+        <f>B6+C6+D6</f>
+        <v>218.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15">
+        <f t="shared" ref="B7:B14" si="1">E6</f>
+        <v>218.36</v>
+      </c>
+      <c r="C7" s="15">
+        <v>100</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="0"/>
+        <v>19.101600000000001</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" ref="E7:E14" si="2">B7+C7+D7</f>
+        <v>337.46160000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15">
+        <f t="shared" si="1"/>
+        <v>337.46160000000003</v>
+      </c>
+      <c r="C8" s="15">
+        <v>100</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="0"/>
+        <v>26.247696000000001</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="2"/>
+        <v>463.70929600000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="12">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15">
+        <f t="shared" si="1"/>
+        <v>463.70929600000005</v>
+      </c>
+      <c r="C9" s="15">
+        <v>100</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="0"/>
+        <v>33.822557759999995</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" si="2"/>
+        <v>597.53185375999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15">
+        <f t="shared" si="1"/>
+        <v>597.53185375999999</v>
+      </c>
+      <c r="C10" s="15">
+        <v>100</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" si="0"/>
+        <v>41.851911225599999</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="2"/>
+        <v>739.38376498560001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="12">
+        <v>7</v>
+      </c>
+      <c r="B11" s="15">
+        <f t="shared" si="1"/>
+        <v>739.38376498560001</v>
+      </c>
+      <c r="C11" s="15">
+        <v>100</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="0"/>
+        <v>50.363025899135998</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="2"/>
+        <v>889.74679088473601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15">
+        <f t="shared" si="1"/>
+        <v>889.74679088473601</v>
+      </c>
+      <c r="C12" s="15">
+        <v>100</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" si="0"/>
+        <v>59.384807453084157</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="2"/>
+        <v>1049.1315983378202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="12">
+        <v>9</v>
+      </c>
+      <c r="B13" s="15">
+        <f t="shared" si="1"/>
+        <v>1049.1315983378202</v>
+      </c>
+      <c r="C13" s="15">
+        <v>100</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="0"/>
+        <v>68.947895900269202</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="2"/>
+        <v>1218.0794942380894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="12">
+        <v>10</v>
+      </c>
+      <c r="B14" s="15">
+        <f t="shared" si="1"/>
+        <v>1218.0794942380894</v>
+      </c>
+      <c r="C14" s="15">
+        <v>100</v>
+      </c>
+      <c r="D14" s="15">
+        <f t="shared" si="0"/>
+        <v>79.084769654285367</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="2"/>
+        <v>1397.1642638923747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="17"/>
+      <c r="D16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="19">
+        <f>FV(B2,A14,-100,,0)</f>
+        <v>1318.079494238091</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>